--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_3_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1297276.331428656</v>
+        <v>1242324.442144561</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>408938.387201317</v>
+        <v>408938.3872013174</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8117596.172947272</v>
+        <v>8117596.172947271</v>
       </c>
     </row>
     <row r="11">
@@ -1381,10 +1381,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S11" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -1435,7 +1435,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X11" t="n">
-        <v>240.4660086744121</v>
+        <v>80.77934207272065</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,22 +1451,22 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D12" t="n">
-        <v>3.329915919762344</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>177.283526739121</v>
       </c>
       <c r="T12" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>237.1773944157285</v>
@@ -1511,13 +1511,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W12" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>223.3842861340256</v>
+        <v>137.8091260168141</v>
       </c>
     </row>
     <row r="13">
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>129.482578516696</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1572,13 +1572,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>50.00010435294875</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>104.4504115547735</v>
+        <v>99.29272981563604</v>
       </c>
       <c r="S14" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T14" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>250.0353723969745</v>
@@ -1669,13 +1669,13 @@
         <v>320.879783609152</v>
       </c>
       <c r="W14" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>240.4660086744117</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="15">
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.329915919761908</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>63.52884689127704</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>177.283526739121</v>
       </c>
       <c r="T15" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>237.1773944157285</v>
@@ -1748,10 +1748,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W15" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>223.3842861340256</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>158.6107100818747</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>50.00010435294877</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>151.6473053916251</v>
       </c>
       <c r="E17" t="n">
-        <v>326.2189840146609</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F17" t="n">
         <v>403.1992496400135</v>
@@ -1861,10 +1861,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H17" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>148.074029372828</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>3.329915919762344</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1973,16 +1973,16 @@
         <v>86.89603752886882</v>
       </c>
       <c r="S18" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>8.916258666857177</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>7.226885210986</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>252.3611095852079</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H20" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>185.1403533011872</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2162,19 +2162,19 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>49.34829086088853</v>
       </c>
       <c r="T21" t="n">
-        <v>184.7111794386739</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U21" t="n">
         <v>237.1773944157285</v>
@@ -2222,13 +2222,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>73.1432960270615</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>224.3942962732598</v>
+        <v>8.916258666857129</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>337.7721596422273</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>12.76276956772021</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W23" t="n">
-        <v>198.2427904969677</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,28 +2396,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>8.873874152379722</v>
+        <v>3.329915919761908</v>
       </c>
       <c r="H24" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U24" t="n">
         <v>237.1773944157285</v>
@@ -2465,7 +2465,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>177.6169206649681</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>119.9206716353532</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>219.8833882876052</v>
       </c>
       <c r="E26" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
         <v>417.3985592667085</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>119.3535308445077</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>34.26361336195828</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1773944157285</v>
+        <v>226.7297788669181</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>75.61813689207878</v>
+        <v>8.916258666857022</v>
       </c>
       <c r="X28" t="n">
-        <v>221.9194554082425</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>207.4421960413017</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>147.8573665543298</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.220744867262988</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
@@ -2888,10 +2888,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H30" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T30" t="n">
         <v>211.8662302997449</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1773944157285</v>
+        <v>197.6562341504</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>8.916258666857177</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>123.1434003800101</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>210.5518240523797</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>200.8511188131645</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>337.8964638257669</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>359.7827142947061</v>
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>14.7508730009914</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>118.2964226714636</v>
       </c>
       <c r="I33" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T33" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1773944157285</v>
+        <v>162.2495461239723</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -3173,10 +3173,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="34">
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>137.4545982671964</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>7.226885210985985</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>374.0872403778333</v>
       </c>
       <c r="C35" t="n">
-        <v>249.2860788611581</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3277,10 +3277,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>296.1206454439288</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>104.4504115547735</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>194.7117974622146</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>382.2855674184499</v>
@@ -3344,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,25 +3392,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S36" t="n">
-        <v>39.72908287087748</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>237.1773944157285</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>197.3444430118829</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3435,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>73.3534034990646</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>77.52012824943846</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>145.433169315347</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>74.58429473553585</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>374.0872403778333</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F38" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>417.3985592667085</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>245.4701065788535</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>98.43984862294447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>39.43054607244817</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T39" t="n">
-        <v>115.1070645654656</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1773944157285</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
@@ -3650,7 +3650,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>152.3549420496105</v>
+        <v>16.93456886964948</v>
       </c>
       <c r="D40" t="n">
-        <v>145.1826502507107</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>403.1992496400135</v>
+        <v>130.2130396672661</v>
       </c>
       <c r="G41" t="n">
         <v>417.3985592667085</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>104.4504115547734</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T41" t="n">
-        <v>107.2346496922156</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.0353723969745</v>
@@ -3821,25 +3821,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>87.38581140164575</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S42" t="n">
-        <v>114.6281096945702</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>211.8662302997449</v>
@@ -3878,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>7.226885210986056</v>
+        <v>168.0550137836253</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>129.482578516696</v>
       </c>
     </row>
     <row r="44">
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F44" t="n">
-        <v>274.6170600477112</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.0353723969745</v>
       </c>
       <c r="V44" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>301.0212437973681</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="45">
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>16.49319868880634</v>
       </c>
       <c r="G45" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>18.93291146087433</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886883</v>
       </c>
       <c r="S45" t="n">
         <v>177.283526739121</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>7.226885210986161</v>
+        <v>7.226885210985951</v>
       </c>
     </row>
   </sheetData>
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="C11" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="D11" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E11" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F11" t="n">
-        <v>34.31465285444518</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G11" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H11" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I11" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J11" t="n">
-        <v>79.26440887602985</v>
+        <v>79.26440887602996</v>
       </c>
       <c r="K11" t="n">
-        <v>253.8975067193751</v>
+        <v>253.8975067193752</v>
       </c>
       <c r="L11" t="n">
-        <v>525.5283691389722</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M11" t="n">
         <v>856.6460009292781</v>
@@ -5056,37 +5056,37 @@
         <v>1186.279026157783</v>
       </c>
       <c r="O11" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P11" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q11" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R11" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S11" t="n">
-        <v>1413.54859321015</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="T11" t="n">
-        <v>1195.201146295158</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="U11" t="n">
-        <v>942.6401640759917</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="V11" t="n">
-        <v>618.5191705313937</v>
+        <v>1286.106182960717</v>
       </c>
       <c r="W11" t="n">
-        <v>277.2096111114271</v>
+        <v>944.7966235407509</v>
       </c>
       <c r="X11" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="Y11" t="n">
-        <v>34.31465285444518</v>
+        <v>863.2013285178008</v>
       </c>
     </row>
     <row r="12">
@@ -5096,31 +5096,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>37.67820428854856</v>
+        <v>827.0306168475769</v>
       </c>
       <c r="C12" t="n">
-        <v>37.67820428854856</v>
+        <v>637.6183425805406</v>
       </c>
       <c r="D12" t="n">
-        <v>34.31465285444518</v>
+        <v>476.8382263415723</v>
       </c>
       <c r="E12" t="n">
-        <v>34.31465285444518</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="F12" t="n">
-        <v>34.31465285444518</v>
+        <v>303.2750224629867</v>
       </c>
       <c r="G12" t="n">
-        <v>34.31465285444518</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H12" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I12" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J12" t="n">
-        <v>54.40930111025872</v>
+        <v>54.40930111025871</v>
       </c>
       <c r="K12" t="n">
         <v>215.5091216889815</v>
@@ -5129,43 +5129,43 @@
         <v>498.4142537443597</v>
       </c>
       <c r="M12" t="n">
-        <v>873.3058632974213</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N12" t="n">
-        <v>1276.539627797432</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O12" t="n">
-        <v>1589.672661844326</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P12" t="n">
-        <v>1625.193464940061</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q12" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R12" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S12" t="n">
-        <v>1448.884598007118</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T12" t="n">
-        <v>1234.878304775052</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="U12" t="n">
-        <v>995.3051791025991</v>
+        <v>1209.311472334664</v>
       </c>
       <c r="V12" t="n">
-        <v>752.2254610062332</v>
+        <v>966.2317542382982</v>
       </c>
       <c r="W12" t="n">
-        <v>482.8268917365245</v>
+        <v>966.2317542382982</v>
       </c>
       <c r="X12" t="n">
-        <v>263.3188973532209</v>
+        <v>966.2317542382982</v>
       </c>
       <c r="Y12" t="n">
-        <v>37.67820428854856</v>
+        <v>827.0306168475769</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="C13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="D13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="E13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="F13" t="n">
-        <v>34.31465285444518</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J13" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K13" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L13" t="n">
         <v>105.4471208306433</v>
@@ -5220,31 +5220,31 @@
         <v>334.8576753800223</v>
       </c>
       <c r="Q13" t="n">
-        <v>260.9755581809703</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R13" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="T13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="U13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="V13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="W13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="X13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Y13" t="n">
-        <v>34.31465285444518</v>
+        <v>334.8576753800223</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="C14" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="D14" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E14" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F14" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G14" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="H14" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I14" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J14" t="n">
-        <v>79.26440887602962</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K14" t="n">
-        <v>253.8975067193749</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L14" t="n">
-        <v>525.5283691389719</v>
+        <v>525.5283691389722</v>
       </c>
       <c r="M14" t="n">
-        <v>856.6460009292779</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N14" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O14" t="n">
-        <v>1460.632785841149</v>
+        <v>1460.63278584115</v>
       </c>
       <c r="P14" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q14" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R14" t="n">
-        <v>1610.227176505315</v>
+        <v>1615.436956039798</v>
       </c>
       <c r="S14" t="n">
-        <v>1413.548593210149</v>
+        <v>1418.758372744632</v>
       </c>
       <c r="T14" t="n">
-        <v>1195.201146295158</v>
+        <v>1418.758372744632</v>
       </c>
       <c r="U14" t="n">
-        <v>942.6401640759913</v>
+        <v>1166.197390525466</v>
       </c>
       <c r="V14" t="n">
-        <v>618.5191705313932</v>
+        <v>842.0763969808679</v>
       </c>
       <c r="W14" t="n">
-        <v>277.2096111114267</v>
+        <v>842.0763969808679</v>
       </c>
       <c r="X14" t="n">
-        <v>34.31465285444516</v>
+        <v>842.0763969808679</v>
       </c>
       <c r="Y14" t="n">
-        <v>34.31465285444516</v>
+        <v>455.9293591844538</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>34.31465285444516</v>
+        <v>649.8289835283767</v>
       </c>
       <c r="C15" t="n">
-        <v>34.31465285444516</v>
+        <v>460.4167092613404</v>
       </c>
       <c r="D15" t="n">
-        <v>34.31465285444516</v>
+        <v>299.6365930223722</v>
       </c>
       <c r="E15" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="F15" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G15" t="n">
-        <v>34.31465285444516</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H15" t="n">
-        <v>34.31465285444516</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I15" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J15" t="n">
-        <v>54.40930111025871</v>
+        <v>54.40930111025872</v>
       </c>
       <c r="K15" t="n">
-        <v>215.5091216889815</v>
+        <v>54.40930111025872</v>
       </c>
       <c r="L15" t="n">
-        <v>498.4142537443597</v>
+        <v>337.314433165637</v>
       </c>
       <c r="M15" t="n">
-        <v>873.3058632974213</v>
+        <v>712.2060427186985</v>
       </c>
       <c r="N15" t="n">
-        <v>1276.539627797432</v>
+        <v>1115.43980721871</v>
       </c>
       <c r="O15" t="n">
-        <v>1589.672661844326</v>
+        <v>1428.572841265604</v>
       </c>
       <c r="P15" t="n">
-        <v>1715.732642722258</v>
+        <v>1657.813205638054</v>
       </c>
       <c r="Q15" t="n">
-        <v>1715.732642722258</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="R15" t="n">
-        <v>1627.958867440573</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="S15" t="n">
-        <v>1448.884598007117</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="T15" t="n">
-        <v>1234.878304775052</v>
+        <v>1536.658373288803</v>
       </c>
       <c r="U15" t="n">
-        <v>995.3051791025987</v>
+        <v>1297.08524761635</v>
       </c>
       <c r="V15" t="n">
-        <v>752.2254610062328</v>
+        <v>1054.005529519984</v>
       </c>
       <c r="W15" t="n">
-        <v>482.8268917365241</v>
+        <v>1054.005529519984</v>
       </c>
       <c r="X15" t="n">
-        <v>263.3188973532204</v>
+        <v>1054.005529519984</v>
       </c>
       <c r="Y15" t="n">
-        <v>37.6782042885481</v>
+        <v>828.3648364553119</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="C16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="D16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="E16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="F16" t="n">
-        <v>84.81980876651463</v>
+        <v>194.5274913209852</v>
       </c>
       <c r="G16" t="n">
-        <v>84.81980876651463</v>
+        <v>194.5274913209852</v>
       </c>
       <c r="H16" t="n">
-        <v>84.81980876651463</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I16" t="n">
-        <v>84.81980876651463</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J16" t="n">
-        <v>34.31465285444516</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K16" t="n">
-        <v>42.23041924514574</v>
+        <v>42.23041924514575</v>
       </c>
       <c r="L16" t="n">
         <v>105.4471208306433</v>
@@ -5457,31 +5457,31 @@
         <v>334.8576753800223</v>
       </c>
       <c r="Q16" t="n">
-        <v>260.9755581809703</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="R16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="S16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="T16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="U16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="V16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="W16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="X16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="Y16" t="n">
-        <v>84.81980876651463</v>
+        <v>334.8576753800223</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="C17" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="D17" t="n">
-        <v>1715.732642722259</v>
+        <v>1238.432552822484</v>
       </c>
       <c r="E17" t="n">
-        <v>1386.218517454924</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F17" t="n">
-        <v>978.9465481215775</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G17" t="n">
-        <v>557.3318417915689</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H17" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I17" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J17" t="n">
-        <v>79.26440887602996</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K17" t="n">
-        <v>253.8975067193752</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L17" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389722</v>
       </c>
       <c r="M17" t="n">
-        <v>856.6460009292783</v>
+        <v>856.6460009292781</v>
       </c>
       <c r="N17" t="n">
         <v>1186.279026157783</v>
@@ -5551,16 +5551,16 @@
         <v>1715.732642722259</v>
       </c>
       <c r="V17" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="X17" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.611649177661</v>
       </c>
       <c r="Y17" t="n">
-        <v>1715.732642722259</v>
+        <v>1391.611649177661</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>37.67820428854856</v>
+        <v>734.8757577959532</v>
       </c>
       <c r="C18" t="n">
-        <v>37.67820428854856</v>
+        <v>545.4634835289169</v>
       </c>
       <c r="D18" t="n">
-        <v>37.67820428854856</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="E18" t="n">
-        <v>37.67820428854856</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="F18" t="n">
-        <v>37.67820428854856</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G18" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H18" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I18" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J18" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="K18" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="L18" t="n">
-        <v>337.314433165637</v>
+        <v>304.6946924676441</v>
       </c>
       <c r="M18" t="n">
-        <v>712.2060427186985</v>
+        <v>679.5863020207057</v>
       </c>
       <c r="N18" t="n">
-        <v>1115.43980721871</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O18" t="n">
-        <v>1428.572841265604</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P18" t="n">
         <v>1625.193464940061</v>
@@ -5621,25 +5621,25 @@
         <v>1627.958867440573</v>
       </c>
       <c r="S18" t="n">
-        <v>1448.884598007118</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T18" t="n">
-        <v>1234.878304775052</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U18" t="n">
-        <v>995.3051791025991</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="V18" t="n">
-        <v>752.2254610062332</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="W18" t="n">
-        <v>482.8268917365245</v>
+        <v>1358.560298170864</v>
       </c>
       <c r="X18" t="n">
-        <v>263.3188973532209</v>
+        <v>1139.052303787561</v>
       </c>
       <c r="Y18" t="n">
-        <v>37.67820428854856</v>
+        <v>913.4116107228883</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="C19" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="D19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="E19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="F19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J19" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="K19" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L19" t="n">
         <v>105.4471208306433</v>
@@ -5706,19 +5706,19 @@
         <v>334.8576753800223</v>
       </c>
       <c r="U19" t="n">
-        <v>43.3209747401595</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="V19" t="n">
-        <v>43.3209747401595</v>
+        <v>334.8576753800223</v>
       </c>
       <c r="W19" t="n">
-        <v>43.3209747401595</v>
+        <v>41.61453690594618</v>
       </c>
       <c r="X19" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444517</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>369.9489506776823</v>
+        <v>1150.856285470723</v>
       </c>
       <c r="C20" t="n">
-        <v>369.9489506776823</v>
+        <v>797.1133588230673</v>
       </c>
       <c r="D20" t="n">
-        <v>369.9489506776823</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="E20" t="n">
-        <v>369.9489506776823</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="F20" t="n">
-        <v>369.9489506776823</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G20" t="n">
-        <v>369.9489506776823</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H20" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I20" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J20" t="n">
-        <v>79.26440887602996</v>
+        <v>79.26440887602985</v>
       </c>
       <c r="K20" t="n">
-        <v>253.8975067193752</v>
+        <v>253.8975067193755</v>
       </c>
       <c r="L20" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389725</v>
       </c>
       <c r="M20" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292786</v>
       </c>
       <c r="N20" t="n">
         <v>1186.279026157783</v>
@@ -5770,7 +5770,7 @@
         <v>1460.63278584115</v>
       </c>
       <c r="P20" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q20" t="n">
         <v>1715.732642722259</v>
@@ -5785,19 +5785,19 @@
         <v>1715.732642722259</v>
       </c>
       <c r="U20" t="n">
-        <v>1715.732642722259</v>
+        <v>1528.722184842271</v>
       </c>
       <c r="V20" t="n">
-        <v>1715.732642722259</v>
+        <v>1528.722184842271</v>
       </c>
       <c r="W20" t="n">
-        <v>1374.423083302292</v>
+        <v>1528.722184842271</v>
       </c>
       <c r="X20" t="n">
-        <v>1011.006200176327</v>
+        <v>1528.722184842271</v>
       </c>
       <c r="Y20" t="n">
-        <v>624.8591623799125</v>
+        <v>1528.722184842271</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>867.9669970985514</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="C21" t="n">
-        <v>678.5547228315151</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="D21" t="n">
-        <v>517.7746065925468</v>
+        <v>207.8778567330307</v>
       </c>
       <c r="E21" t="n">
-        <v>344.2114027139612</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="F21" t="n">
-        <v>183.7836864312053</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G21" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H21" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I21" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J21" t="n">
-        <v>54.40930111025872</v>
+        <v>54.40930111025871</v>
       </c>
       <c r="K21" t="n">
         <v>215.5091216889815</v>
       </c>
       <c r="L21" t="n">
-        <v>498.4142537443597</v>
+        <v>304.6946924676441</v>
       </c>
       <c r="M21" t="n">
-        <v>873.3058632974213</v>
+        <v>679.5863020207057</v>
       </c>
       <c r="N21" t="n">
-        <v>1173.359244302915</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O21" t="n">
-        <v>1486.492278349809</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P21" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q21" t="n">
         <v>1715.732642722259</v>
       </c>
       <c r="R21" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S21" t="n">
-        <v>1715.732642722259</v>
+        <v>1578.112108995231</v>
       </c>
       <c r="T21" t="n">
-        <v>1529.155693794305</v>
+        <v>1364.105815763166</v>
       </c>
       <c r="U21" t="n">
-        <v>1289.582568121852</v>
+        <v>1124.532690090713</v>
       </c>
       <c r="V21" t="n">
-        <v>1046.502850025486</v>
+        <v>881.4529719943467</v>
       </c>
       <c r="W21" t="n">
-        <v>1046.502850025486</v>
+        <v>612.0544027246381</v>
       </c>
       <c r="X21" t="n">
-        <v>1046.502850025486</v>
+        <v>612.0544027246381</v>
       </c>
       <c r="Y21" t="n">
-        <v>1046.502850025486</v>
+        <v>386.4137096599658</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="C22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="D22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="E22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="F22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="G22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="H22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="I22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="J22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="K22" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L22" t="n">
         <v>105.4471208306433</v>
@@ -5925,37 +5925,37 @@
         <v>262.1720788316464</v>
       </c>
       <c r="O22" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P22" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q22" t="n">
-        <v>260.9755581809703</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R22" t="n">
-        <v>260.9755581809703</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S22" t="n">
-        <v>260.9755581809703</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T22" t="n">
-        <v>260.9755581809703</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U22" t="n">
-        <v>260.9755581809703</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="V22" t="n">
-        <v>260.9755581809703</v>
+        <v>43.32097474015944</v>
       </c>
       <c r="W22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="X22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
       <c r="Y22" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444517</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>388.0575795021006</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="C23" t="n">
-        <v>34.31465285444519</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="D23" t="n">
-        <v>34.31465285444519</v>
+        <v>382.8406371097229</v>
       </c>
       <c r="E23" t="n">
-        <v>34.31465285444519</v>
+        <v>382.8406371097229</v>
       </c>
       <c r="F23" t="n">
-        <v>34.31465285444519</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G23" t="n">
-        <v>34.31465285444519</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H23" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I23" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J23" t="n">
-        <v>79.2644088760303</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K23" t="n">
-        <v>253.897506719376</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L23" t="n">
-        <v>525.5283691389729</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M23" t="n">
-        <v>856.6460009292788</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N23" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O23" t="n">
-        <v>1460.632785841151</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P23" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q23" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R23" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S23" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T23" t="n">
-        <v>1715.732642722259</v>
+        <v>1300.7066125121</v>
       </c>
       <c r="U23" t="n">
-        <v>1715.732642722259</v>
+        <v>1048.145630292934</v>
       </c>
       <c r="V23" t="n">
-        <v>1715.732642722259</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="W23" t="n">
-        <v>1515.487399796029</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="X23" t="n">
-        <v>1152.070516670063</v>
+        <v>724.0246367483363</v>
       </c>
       <c r="Y23" t="n">
-        <v>765.9234788736494</v>
+        <v>724.0246367483363</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>565.637382373493</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="C24" t="n">
-        <v>565.637382373493</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="D24" t="n">
-        <v>404.8572661345247</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="E24" t="n">
-        <v>404.8572661345247</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="F24" t="n">
-        <v>244.4295498517688</v>
+        <v>37.6782042885481</v>
       </c>
       <c r="G24" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I24" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J24" t="n">
-        <v>54.40930111025874</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K24" t="n">
-        <v>215.5091216889815</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L24" t="n">
-        <v>498.4142537443598</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M24" t="n">
-        <v>873.3058632974214</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N24" t="n">
-        <v>1082.820066520717</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O24" t="n">
-        <v>1395.953100567612</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P24" t="n">
-        <v>1625.193464940062</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q24" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R24" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S24" t="n">
-        <v>1715.732642722259</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T24" t="n">
-        <v>1715.732642722259</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U24" t="n">
-        <v>1476.159517049806</v>
+        <v>995.3051791025987</v>
       </c>
       <c r="V24" t="n">
-        <v>1233.07979895344</v>
+        <v>752.2254610062328</v>
       </c>
       <c r="W24" t="n">
-        <v>963.6812296837317</v>
+        <v>482.8268917365241</v>
       </c>
       <c r="X24" t="n">
-        <v>744.173235300428</v>
+        <v>263.3188973532204</v>
       </c>
       <c r="Y24" t="n">
-        <v>744.173235300428</v>
+        <v>37.6782042885481</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34.31465285444519</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="C25" t="n">
-        <v>34.31465285444519</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="D25" t="n">
-        <v>34.31465285444519</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="E25" t="n">
-        <v>34.31465285444519</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="F25" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G25" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H25" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I25" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J25" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K25" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L25" t="n">
         <v>105.4471208306433</v>
@@ -6159,40 +6159,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N25" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O25" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P25" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q25" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R25" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S25" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T25" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U25" t="n">
-        <v>334.8576753800223</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V25" t="n">
-        <v>334.8576753800223</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W25" t="n">
-        <v>334.8576753800223</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="X25" t="n">
-        <v>334.8576753800223</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="Y25" t="n">
-        <v>213.7256838291605</v>
+        <v>43.32097474015933</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>831.1605834891368</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="C26" t="n">
-        <v>831.1605834891368</v>
+        <v>1085.305761131543</v>
       </c>
       <c r="D26" t="n">
-        <v>831.1605834891368</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="E26" t="n">
-        <v>455.9293591844538</v>
+        <v>863.2013285178008</v>
       </c>
       <c r="F26" t="n">
         <v>455.9293591844538</v>
       </c>
       <c r="G26" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H26" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I26" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J26" t="n">
-        <v>79.26440887602996</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K26" t="n">
-        <v>253.8975067193752</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L26" t="n">
-        <v>525.5283691389725</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M26" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N26" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O26" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P26" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q26" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R26" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S26" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T26" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U26" t="n">
-        <v>1595.1735206571</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V26" t="n">
-        <v>1595.1735206571</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W26" t="n">
-        <v>1595.1735206571</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="X26" t="n">
-        <v>1595.1735206571</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="Y26" t="n">
-        <v>1209.026482860686</v>
+        <v>1463.171660503092</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>339.9966893088202</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="C27" t="n">
-        <v>150.5844150417839</v>
+        <v>529.0856892547549</v>
       </c>
       <c r="D27" t="n">
-        <v>115.9747045751594</v>
+        <v>368.3055730157866</v>
       </c>
       <c r="E27" t="n">
-        <v>115.9747045751594</v>
+        <v>194.7423691372011</v>
       </c>
       <c r="F27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I27" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J27" t="n">
-        <v>34.31465285444518</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K27" t="n">
-        <v>34.31465285444518</v>
+        <v>112.3287381944633</v>
       </c>
       <c r="L27" t="n">
-        <v>317.2197849098234</v>
+        <v>395.2338702498415</v>
       </c>
       <c r="M27" t="n">
-        <v>692.1113944628851</v>
+        <v>770.1254798029031</v>
       </c>
       <c r="N27" t="n">
-        <v>1095.345158962896</v>
+        <v>1173.359244302914</v>
       </c>
       <c r="O27" t="n">
-        <v>1408.47819300979</v>
+        <v>1486.492278349808</v>
       </c>
       <c r="P27" t="n">
-        <v>1637.71855738224</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Q27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T27" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U27" t="n">
-        <v>1476.159517049806</v>
+        <v>1486.712664068806</v>
       </c>
       <c r="V27" t="n">
-        <v>1233.07979895344</v>
+        <v>1243.63294597244</v>
       </c>
       <c r="W27" t="n">
-        <v>963.6812296837312</v>
+        <v>974.234376702731</v>
       </c>
       <c r="X27" t="n">
-        <v>744.1732353004276</v>
+        <v>754.7263823194273</v>
       </c>
       <c r="Y27" t="n">
-        <v>518.5325422357553</v>
+        <v>529.0856892547549</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K28" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L28" t="n">
         <v>105.4471208306433</v>
@@ -6396,40 +6396,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N28" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O28" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P28" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q28" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R28" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S28" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T28" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U28" t="n">
-        <v>334.8576753800223</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="V28" t="n">
-        <v>334.8576753800223</v>
+        <v>43.32097474015933</v>
       </c>
       <c r="W28" t="n">
-        <v>258.475718923377</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="X28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y28" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>816.8178464924752</v>
+        <v>1506.195070963368</v>
       </c>
       <c r="C29" t="n">
-        <v>816.8178464924752</v>
+        <v>1152.452144315712</v>
       </c>
       <c r="D29" t="n">
-        <v>816.8178464924752</v>
+        <v>1152.452144315712</v>
       </c>
       <c r="E29" t="n">
-        <v>441.5866221877922</v>
+        <v>777.2209200110292</v>
       </c>
       <c r="F29" t="n">
-        <v>34.31465285444518</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="G29" t="n">
-        <v>34.31465285444518</v>
+        <v>369.9489506776823</v>
       </c>
       <c r="H29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I29" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J29" t="n">
-        <v>79.26440887602979</v>
+        <v>79.26440887602973</v>
       </c>
       <c r="K29" t="n">
         <v>253.897506719375</v>
       </c>
       <c r="L29" t="n">
-        <v>525.528369138972</v>
+        <v>525.5283691389719</v>
       </c>
       <c r="M29" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N29" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O29" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P29" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q29" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R29" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S29" t="n">
-        <v>1566.381767414855</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T29" t="n">
-        <v>1566.381767414855</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U29" t="n">
-        <v>1566.381767414855</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="V29" t="n">
-        <v>1566.381767414855</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="W29" t="n">
-        <v>1566.381767414855</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="X29" t="n">
-        <v>1202.964884288889</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="Y29" t="n">
-        <v>816.8178464924752</v>
+        <v>1715.732642722258</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>547.6059671000558</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="C30" t="n">
-        <v>547.6059671000558</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="D30" t="n">
-        <v>547.6059671000558</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="E30" t="n">
-        <v>545.3627904664568</v>
+        <v>344.2114027139612</v>
       </c>
       <c r="F30" t="n">
-        <v>384.9350741837009</v>
+        <v>183.7836864312053</v>
       </c>
       <c r="G30" t="n">
-        <v>235.4660406069408</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I30" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J30" t="n">
-        <v>54.40930111025872</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K30" t="n">
-        <v>215.5091216889815</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="L30" t="n">
-        <v>498.4142537443597</v>
+        <v>317.2197849098234</v>
       </c>
       <c r="M30" t="n">
-        <v>873.3058632974213</v>
+        <v>692.111394462885</v>
       </c>
       <c r="N30" t="n">
-        <v>1276.539627797432</v>
+        <v>1095.345158962896</v>
       </c>
       <c r="O30" t="n">
-        <v>1589.672661844326</v>
+        <v>1408.47819300979</v>
       </c>
       <c r="P30" t="n">
-        <v>1715.732642722259</v>
+        <v>1637.71855738224</v>
       </c>
       <c r="Q30" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R30" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S30" t="n">
-        <v>1715.732642722259</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T30" t="n">
-        <v>1501.726349490193</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U30" t="n">
-        <v>1262.15322381774</v>
+        <v>1035.225543006971</v>
       </c>
       <c r="V30" t="n">
-        <v>1262.15322381774</v>
+        <v>792.145824910605</v>
       </c>
       <c r="W30" t="n">
-        <v>992.7546545480317</v>
+        <v>522.7472556408964</v>
       </c>
       <c r="X30" t="n">
-        <v>773.246660164728</v>
+        <v>522.7472556408964</v>
       </c>
       <c r="Y30" t="n">
-        <v>547.6059671000558</v>
+        <v>522.7472556408964</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C31" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D31" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E31" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J31" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K31" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L31" t="n">
         <v>105.4471208306433</v>
@@ -6633,40 +6633,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N31" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O31" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P31" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q31" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R31" t="n">
-        <v>334.8576753800223</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="S31" t="n">
-        <v>334.8576753800223</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="T31" t="n">
-        <v>334.8576753800223</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="U31" t="n">
-        <v>43.3209747401595</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="V31" t="n">
-        <v>43.3209747401595</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="W31" t="n">
-        <v>43.3209747401595</v>
+        <v>158.7019259655665</v>
       </c>
       <c r="X31" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="Y31" t="n">
-        <v>43.3209747401595</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>246.9932630083641</v>
+        <v>966.168721799879</v>
       </c>
       <c r="C32" t="n">
-        <v>34.31465285444519</v>
+        <v>612.4257951522236</v>
       </c>
       <c r="D32" t="n">
-        <v>34.31465285444519</v>
+        <v>612.4257951522236</v>
       </c>
       <c r="E32" t="n">
-        <v>34.31465285444519</v>
+        <v>237.1945708475406</v>
       </c>
       <c r="F32" t="n">
-        <v>34.31465285444519</v>
+        <v>237.1945708475406</v>
       </c>
       <c r="G32" t="n">
-        <v>34.31465285444519</v>
+        <v>237.1945708475406</v>
       </c>
       <c r="H32" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I32" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J32" t="n">
         <v>79.2644088760303</v>
       </c>
       <c r="K32" t="n">
-        <v>253.8975067193755</v>
+        <v>253.897506719376</v>
       </c>
       <c r="L32" t="n">
-        <v>525.5283691389725</v>
+        <v>525.5283691389729</v>
       </c>
       <c r="M32" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292788</v>
       </c>
       <c r="N32" t="n">
-        <v>1186.279026157783</v>
+        <v>1186.279026157784</v>
       </c>
       <c r="O32" t="n">
         <v>1460.63278584115</v>
@@ -6739,13 +6739,13 @@
         <v>1715.732642722259</v>
       </c>
       <c r="W32" t="n">
-        <v>1374.423083302293</v>
+        <v>1715.732642722259</v>
       </c>
       <c r="X32" t="n">
-        <v>1011.006200176327</v>
+        <v>1352.315759596293</v>
       </c>
       <c r="Y32" t="n">
-        <v>624.859162379913</v>
+        <v>966.168721799879</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>749.6749364516662</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="C33" t="n">
-        <v>560.2626621846299</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="D33" t="n">
-        <v>560.2626621846299</v>
+        <v>327.3691927648122</v>
       </c>
       <c r="E33" t="n">
-        <v>545.3627904664568</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="F33" t="n">
-        <v>384.9350741837009</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="G33" t="n">
-        <v>235.4660406069408</v>
+        <v>153.8059888862266</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9747045751594</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I33" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J33" t="n">
-        <v>54.40930111025874</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K33" t="n">
-        <v>215.5091216889815</v>
+        <v>112.3287381944638</v>
       </c>
       <c r="L33" t="n">
-        <v>498.4142537443598</v>
+        <v>395.233870249842</v>
       </c>
       <c r="M33" t="n">
-        <v>873.3058632974214</v>
+        <v>770.1254798029036</v>
       </c>
       <c r="N33" t="n">
-        <v>1276.539627797433</v>
+        <v>1173.359244302915</v>
       </c>
       <c r="O33" t="n">
-        <v>1589.672661844327</v>
+        <v>1486.492278349809</v>
       </c>
       <c r="P33" t="n">
         <v>1715.732642722259</v>
@@ -6803,28 +6803,28 @@
         <v>1715.732642722259</v>
       </c>
       <c r="R33" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S33" t="n">
-        <v>1715.732642722259</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="T33" t="n">
-        <v>1501.726349490194</v>
+        <v>1448.884598007118</v>
       </c>
       <c r="U33" t="n">
-        <v>1262.153223817741</v>
+        <v>1284.996167578863</v>
       </c>
       <c r="V33" t="n">
-        <v>1019.073505721375</v>
+        <v>1041.916449482497</v>
       </c>
       <c r="W33" t="n">
-        <v>749.6749364516662</v>
+        <v>772.5178802127882</v>
       </c>
       <c r="X33" t="n">
-        <v>749.6749364516662</v>
+        <v>553.0098858294846</v>
       </c>
       <c r="Y33" t="n">
-        <v>749.6749364516662</v>
+        <v>327.3691927648122</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.31465285444519</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="C34" t="n">
-        <v>34.31465285444519</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="D34" t="n">
-        <v>34.31465285444519</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="E34" t="n">
-        <v>34.31465285444519</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="F34" t="n">
-        <v>34.31465285444519</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="G34" t="n">
-        <v>34.31465285444519</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="H34" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="I34" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="J34" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444518</v>
       </c>
       <c r="K34" t="n">
-        <v>42.23041924514575</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L34" t="n">
         <v>105.4471208306433</v>
@@ -6870,40 +6870,40 @@
         <v>180.6961586662945</v>
       </c>
       <c r="N34" t="n">
-        <v>262.1720788316464</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O34" t="n">
-        <v>315.4306320098958</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P34" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q34" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R34" t="n">
-        <v>334.8576753800223</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S34" t="n">
-        <v>334.8576753800223</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="T34" t="n">
-        <v>334.8576753800223</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="U34" t="n">
-        <v>334.8576753800223</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="V34" t="n">
-        <v>334.8576753800223</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="W34" t="n">
-        <v>41.61453690594618</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="X34" t="n">
-        <v>34.31465285444519</v>
+        <v>196.0146468272985</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.31465285444519</v>
+        <v>196.0146468272985</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>286.118772916221</v>
+        <v>755.0411222591293</v>
       </c>
       <c r="C35" t="n">
-        <v>34.31465285444518</v>
+        <v>755.0411222591293</v>
       </c>
       <c r="D35" t="n">
-        <v>34.31465285444518</v>
+        <v>755.0411222591293</v>
       </c>
       <c r="E35" t="n">
-        <v>34.31465285444518</v>
+        <v>755.0411222591293</v>
       </c>
       <c r="F35" t="n">
-        <v>34.31465285444518</v>
+        <v>455.9293591844538</v>
       </c>
       <c r="G35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I35" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J35" t="n">
-        <v>79.26440887602996</v>
+        <v>79.2644088760299</v>
       </c>
       <c r="K35" t="n">
-        <v>253.8975067193752</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L35" t="n">
         <v>525.528369138972</v>
       </c>
       <c r="M35" t="n">
-        <v>856.6460009292781</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N35" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O35" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P35" t="n">
         <v>1650.639799716936</v>
       </c>
       <c r="Q35" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R35" t="n">
-        <v>1610.227176505316</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S35" t="n">
-        <v>1413.54859321015</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T35" t="n">
-        <v>1413.54859321015</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U35" t="n">
-        <v>1413.54859321015</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="V35" t="n">
-        <v>1413.54859321015</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="W35" t="n">
-        <v>1413.54859321015</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="X35" t="n">
-        <v>1050.131710084184</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="Y35" t="n">
-        <v>663.9846722877699</v>
+        <v>1132.907021630678</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>223.7269271214815</v>
+        <v>919.6493512742868</v>
       </c>
       <c r="C36" t="n">
-        <v>34.31465285444518</v>
+        <v>730.2370770072505</v>
       </c>
       <c r="D36" t="n">
-        <v>34.31465285444518</v>
+        <v>569.4569607682822</v>
       </c>
       <c r="E36" t="n">
-        <v>34.31465285444518</v>
+        <v>395.8937568896967</v>
       </c>
       <c r="F36" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="G36" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H36" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I36" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J36" t="n">
-        <v>54.40930111025872</v>
+        <v>54.40930111025869</v>
       </c>
       <c r="K36" t="n">
-        <v>112.3287381944637</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L36" t="n">
-        <v>395.233870249842</v>
+        <v>498.4142537443596</v>
       </c>
       <c r="M36" t="n">
-        <v>770.1254798029036</v>
+        <v>873.3058632974212</v>
       </c>
       <c r="N36" t="n">
-        <v>1173.359244302915</v>
+        <v>1082.820066520717</v>
       </c>
       <c r="O36" t="n">
-        <v>1486.492278349809</v>
+        <v>1395.953100567611</v>
       </c>
       <c r="P36" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q36" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R36" t="n">
         <v>1627.958867440573</v>
       </c>
       <c r="S36" t="n">
-        <v>1587.828480702313</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="T36" t="n">
-        <v>1373.822187470248</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="U36" t="n">
-        <v>1134.249061797795</v>
+        <v>1388.38574176812</v>
       </c>
       <c r="V36" t="n">
-        <v>891.1693437014288</v>
+        <v>1388.38574176812</v>
       </c>
       <c r="W36" t="n">
-        <v>621.7707744317202</v>
+        <v>1118.987172498411</v>
       </c>
       <c r="X36" t="n">
-        <v>402.2627800484165</v>
+        <v>919.6493512742868</v>
       </c>
       <c r="Y36" t="n">
-        <v>402.2627800484165</v>
+        <v>919.6493512742868</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="C37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="D37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="E37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="F37" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G37" t="n">
-        <v>1715.732642722259</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H37" t="n">
-        <v>1637.429482874341</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I37" t="n">
-        <v>1490.527291646718</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J37" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K37" t="n">
-        <v>1423.105386587382</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L37" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M37" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N37" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O37" t="n">
-        <v>1696.305599352132</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R37" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="T37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="U37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="V37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="W37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="X37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
       <c r="Y37" t="n">
-        <v>1715.732642722259</v>
+        <v>108.4089998231973</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1238.432552822484</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="C38" t="n">
-        <v>1238.432552822484</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="D38" t="n">
-        <v>1238.432552822484</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="E38" t="n">
-        <v>863.2013285178008</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="F38" t="n">
-        <v>455.9293591844538</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="G38" t="n">
-        <v>34.31465285444519</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H38" t="n">
-        <v>34.31465285444519</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I38" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J38" t="n">
-        <v>79.2644088760303</v>
+        <v>79.26440887602939</v>
       </c>
       <c r="K38" t="n">
-        <v>253.897506719376</v>
+        <v>253.8975067193744</v>
       </c>
       <c r="L38" t="n">
-        <v>525.5283691389732</v>
+        <v>525.5283691389714</v>
       </c>
       <c r="M38" t="n">
-        <v>856.6460009292791</v>
+        <v>856.6460009292773</v>
       </c>
       <c r="N38" t="n">
-        <v>1186.279026157784</v>
+        <v>1186.279026157782</v>
       </c>
       <c r="O38" t="n">
-        <v>1460.632785841151</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P38" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R38" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S38" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="T38" t="n">
-        <v>1715.732642722259</v>
+        <v>1519.054059427092</v>
       </c>
       <c r="U38" t="n">
-        <v>1715.732642722259</v>
+        <v>1266.493077207926</v>
       </c>
       <c r="V38" t="n">
-        <v>1715.732642722259</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.732642722259</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="X38" t="n">
-        <v>1715.732642722259</v>
+        <v>1018.543474603023</v>
       </c>
       <c r="Y38" t="n">
-        <v>1616.298452194033</v>
+        <v>1018.543474603023</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>223.7269271214815</v>
+        <v>706.142906705425</v>
       </c>
       <c r="C39" t="n">
-        <v>34.31465285444519</v>
+        <v>706.142906705425</v>
       </c>
       <c r="D39" t="n">
-        <v>34.31465285444519</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="E39" t="n">
-        <v>34.31465285444519</v>
+        <v>545.3627904664568</v>
       </c>
       <c r="F39" t="n">
-        <v>34.31465285444519</v>
+        <v>384.9350741837009</v>
       </c>
       <c r="G39" t="n">
-        <v>34.31465285444519</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H39" t="n">
-        <v>34.31465285444519</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I39" t="n">
-        <v>34.31465285444519</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J39" t="n">
-        <v>54.40930111025874</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K39" t="n">
-        <v>54.40930111025874</v>
+        <v>195.4144734331679</v>
       </c>
       <c r="L39" t="n">
-        <v>337.314433165637</v>
+        <v>478.3196054885461</v>
       </c>
       <c r="M39" t="n">
-        <v>712.2060427186987</v>
+        <v>853.2112150416076</v>
       </c>
       <c r="N39" t="n">
-        <v>1115.43980721871</v>
+        <v>1256.444979541619</v>
       </c>
       <c r="O39" t="n">
-        <v>1428.572841265604</v>
+        <v>1569.578013588513</v>
       </c>
       <c r="P39" t="n">
-        <v>1657.813205638054</v>
+        <v>1625.193464940061</v>
       </c>
       <c r="Q39" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R39" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440573</v>
       </c>
       <c r="S39" t="n">
-        <v>1715.732642722259</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T39" t="n">
-        <v>1599.46288053492</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="U39" t="n">
-        <v>1359.889754862467</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="V39" t="n">
-        <v>1116.810036766101</v>
+        <v>1234.878304775052</v>
       </c>
       <c r="W39" t="n">
-        <v>847.4114674963926</v>
+        <v>965.479735505343</v>
       </c>
       <c r="X39" t="n">
-        <v>627.9034731130889</v>
+        <v>745.9717411220394</v>
       </c>
       <c r="Y39" t="n">
-        <v>402.2627800484166</v>
+        <v>745.9717411220394</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="C40" t="n">
-        <v>1561.838761864067</v>
+        <v>317.752050259164</v>
       </c>
       <c r="D40" t="n">
-        <v>1415.189620196682</v>
+        <v>317.752050259164</v>
       </c>
       <c r="E40" t="n">
-        <v>1415.189620196682</v>
+        <v>174.6448369134822</v>
       </c>
       <c r="F40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J40" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K40" t="n">
-        <v>1423.105386587383</v>
+        <v>42.23041924514573</v>
       </c>
       <c r="L40" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M40" t="n">
-        <v>1561.571126008532</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N40" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316463</v>
       </c>
       <c r="O40" t="n">
-        <v>1696.305599352133</v>
+        <v>315.4306320098956</v>
       </c>
       <c r="P40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Q40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="R40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="S40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="T40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="U40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="W40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="X40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
       <c r="Y40" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800221</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>863.2013285178008</v>
+        <v>774.8405731945688</v>
       </c>
       <c r="C41" t="n">
-        <v>863.2013285178008</v>
+        <v>774.8405731945688</v>
       </c>
       <c r="D41" t="n">
-        <v>863.2013285178008</v>
+        <v>774.8405731945688</v>
       </c>
       <c r="E41" t="n">
-        <v>863.2013285178008</v>
+        <v>774.8405731945688</v>
       </c>
       <c r="F41" t="n">
-        <v>455.9293591844538</v>
+        <v>643.3122502983405</v>
       </c>
       <c r="G41" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="H41" t="n">
-        <v>34.31465285444518</v>
+        <v>221.6975439683318</v>
       </c>
       <c r="I41" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J41" t="n">
-        <v>79.26440887603005</v>
+        <v>79.26440887602988</v>
       </c>
       <c r="K41" t="n">
-        <v>253.8975067193753</v>
+        <v>253.8975067193751</v>
       </c>
       <c r="L41" t="n">
-        <v>525.5283691389724</v>
+        <v>525.5283691389718</v>
       </c>
       <c r="M41" t="n">
-        <v>856.6460009292784</v>
+        <v>856.6460009292779</v>
       </c>
       <c r="N41" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O41" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P41" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q41" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R41" t="n">
-        <v>1610.227176505316</v>
+        <v>1610.227176505315</v>
       </c>
       <c r="S41" t="n">
-        <v>1610.227176505316</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="T41" t="n">
-        <v>1501.909348533381</v>
+        <v>1413.548593210149</v>
       </c>
       <c r="U41" t="n">
-        <v>1249.348366314215</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="V41" t="n">
-        <v>1249.348366314215</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="W41" t="n">
-        <v>1249.348366314215</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="X41" t="n">
-        <v>1249.348366314215</v>
+        <v>1160.987610990983</v>
       </c>
       <c r="Y41" t="n">
-        <v>863.2013285178008</v>
+        <v>774.8405731945688</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>718.4979635217912</v>
+        <v>497.2977408508251</v>
       </c>
       <c r="C42" t="n">
-        <v>529.0856892547549</v>
+        <v>497.2977408508251</v>
       </c>
       <c r="D42" t="n">
-        <v>368.3055730157866</v>
+        <v>497.2977408508251</v>
       </c>
       <c r="E42" t="n">
-        <v>194.7423691372011</v>
+        <v>323.7345369722395</v>
       </c>
       <c r="F42" t="n">
-        <v>34.31465285444518</v>
+        <v>323.7345369722395</v>
       </c>
       <c r="G42" t="n">
-        <v>34.31465285444518</v>
+        <v>235.4660406069408</v>
       </c>
       <c r="H42" t="n">
-        <v>34.31465285444518</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I42" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J42" t="n">
-        <v>34.31465285444518</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K42" t="n">
-        <v>195.4144734331679</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="L42" t="n">
-        <v>478.3196054885462</v>
+        <v>337.314433165637</v>
       </c>
       <c r="M42" t="n">
-        <v>853.2112150416078</v>
+        <v>712.2060427186985</v>
       </c>
       <c r="N42" t="n">
-        <v>1256.444979541619</v>
+        <v>1115.43980721871</v>
       </c>
       <c r="O42" t="n">
-        <v>1569.578013588513</v>
+        <v>1395.95310056761</v>
       </c>
       <c r="P42" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q42" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R42" t="n">
-        <v>1715.732642722259</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S42" t="n">
-        <v>1599.946673333804</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="T42" t="n">
-        <v>1385.940380101739</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="U42" t="n">
-        <v>1385.940380101739</v>
+        <v>1413.952574208507</v>
       </c>
       <c r="V42" t="n">
-        <v>1385.940380101739</v>
+        <v>1170.872856112141</v>
       </c>
       <c r="W42" t="n">
-        <v>1116.54181083203</v>
+        <v>901.4742868424324</v>
       </c>
       <c r="X42" t="n">
-        <v>897.0338164487264</v>
+        <v>901.4742868424324</v>
       </c>
       <c r="Y42" t="n">
-        <v>897.0338164487264</v>
+        <v>675.8335937777601</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1422.489504248183</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="C43" t="n">
-        <v>1422.489504248183</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="D43" t="n">
-        <v>1422.489504248183</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="E43" t="n">
-        <v>1422.489504248183</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="F43" t="n">
-        <v>1422.489504248183</v>
+        <v>204.0671920298242</v>
       </c>
       <c r="G43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J43" t="n">
-        <v>1415.189620196682</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K43" t="n">
-        <v>1423.105386587383</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L43" t="n">
-        <v>1486.32208817288</v>
+        <v>105.4471208306433</v>
       </c>
       <c r="M43" t="n">
-        <v>1561.571126008531</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N43" t="n">
-        <v>1643.047046173883</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O43" t="n">
-        <v>1696.305599352133</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.732642722259</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W43" t="n">
-        <v>1422.489504248183</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="X43" t="n">
-        <v>1422.489504248183</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Y43" t="n">
-        <v>1422.489504248183</v>
+        <v>204.0671920298242</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>920.7032200435032</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="C44" t="n">
-        <v>920.7032200435032</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="D44" t="n">
-        <v>920.7032200435032</v>
+        <v>409.5458771591282</v>
       </c>
       <c r="E44" t="n">
-        <v>920.7032200435032</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F44" t="n">
-        <v>643.3122502983404</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G44" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H44" t="n">
-        <v>221.6975439683318</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I44" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J44" t="n">
         <v>79.26440887602985</v>
       </c>
       <c r="K44" t="n">
-        <v>253.8975067193753</v>
+        <v>253.897506719375</v>
       </c>
       <c r="L44" t="n">
-        <v>525.5283691389724</v>
+        <v>525.528369138972</v>
       </c>
       <c r="M44" t="n">
-        <v>856.6460009292784</v>
+        <v>856.646000929278</v>
       </c>
       <c r="N44" t="n">
         <v>1186.279026157783</v>
       </c>
       <c r="O44" t="n">
-        <v>1460.63278584115</v>
+        <v>1460.632785841149</v>
       </c>
       <c r="P44" t="n">
-        <v>1650.639799716937</v>
+        <v>1650.639799716936</v>
       </c>
       <c r="Q44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="S44" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="T44" t="n">
-        <v>1497.385195807267</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="U44" t="n">
-        <v>1244.824213588101</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="V44" t="n">
-        <v>920.7032200435032</v>
+        <v>1463.171660503092</v>
       </c>
       <c r="W44" t="n">
-        <v>920.7032200435032</v>
+        <v>1159.109798081508</v>
       </c>
       <c r="X44" t="n">
-        <v>920.7032200435032</v>
+        <v>795.6929149555422</v>
       </c>
       <c r="Y44" t="n">
-        <v>920.7032200435032</v>
+        <v>409.5458771591282</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>482.8268917365248</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="C45" t="n">
-        <v>482.8268917365248</v>
+        <v>293.4146174694876</v>
       </c>
       <c r="D45" t="n">
-        <v>482.8268917365248</v>
+        <v>132.6345012305193</v>
       </c>
       <c r="E45" t="n">
-        <v>482.8268917365248</v>
+        <v>132.6345012305193</v>
       </c>
       <c r="F45" t="n">
-        <v>322.3991754537689</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="G45" t="n">
-        <v>172.9301418770088</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="H45" t="n">
-        <v>53.43880584522734</v>
+        <v>115.9747045751594</v>
       </c>
       <c r="I45" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J45" t="n">
-        <v>54.40930111025874</v>
+        <v>54.4093011102587</v>
       </c>
       <c r="K45" t="n">
-        <v>112.3287381944637</v>
+        <v>215.5091216889814</v>
       </c>
       <c r="L45" t="n">
-        <v>395.2338702498419</v>
+        <v>498.4142537443597</v>
       </c>
       <c r="M45" t="n">
-        <v>770.1254798029036</v>
+        <v>873.3058632974213</v>
       </c>
       <c r="N45" t="n">
-        <v>1173.359244302915</v>
+        <v>1276.539627797432</v>
       </c>
       <c r="O45" t="n">
-        <v>1486.492278349809</v>
+        <v>1589.672661844326</v>
       </c>
       <c r="P45" t="n">
-        <v>1715.732642722259</v>
+        <v>1625.19346494006</v>
       </c>
       <c r="Q45" t="n">
-        <v>1715.732642722259</v>
+        <v>1715.732642722258</v>
       </c>
       <c r="R45" t="n">
-        <v>1627.958867440573</v>
+        <v>1627.958867440572</v>
       </c>
       <c r="S45" t="n">
-        <v>1448.884598007118</v>
+        <v>1448.884598007117</v>
       </c>
       <c r="T45" t="n">
-        <v>1234.878304775052</v>
+        <v>1234.878304775051</v>
       </c>
       <c r="U45" t="n">
-        <v>995.3051791025994</v>
+        <v>995.3051791025985</v>
       </c>
       <c r="V45" t="n">
-        <v>752.2254610062334</v>
+        <v>752.2254610062325</v>
       </c>
       <c r="W45" t="n">
-        <v>482.8268917365248</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="X45" t="n">
-        <v>482.8268917365248</v>
+        <v>482.8268917365239</v>
       </c>
       <c r="Y45" t="n">
-        <v>482.8268917365248</v>
+        <v>482.8268917365239</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="C46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="D46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="E46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="F46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="G46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="H46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="I46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="J46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
       <c r="K46" t="n">
-        <v>42.23041924514577</v>
+        <v>42.23041924514574</v>
       </c>
       <c r="L46" t="n">
         <v>105.4471208306433</v>
       </c>
       <c r="M46" t="n">
-        <v>180.6961586662946</v>
+        <v>180.6961586662945</v>
       </c>
       <c r="N46" t="n">
-        <v>262.1720788316466</v>
+        <v>262.1720788316464</v>
       </c>
       <c r="O46" t="n">
-        <v>315.4306320098959</v>
+        <v>315.4306320098957</v>
       </c>
       <c r="P46" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="Q46" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="R46" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="S46" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="T46" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="U46" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="V46" t="n">
-        <v>334.8576753800224</v>
+        <v>334.8576753800222</v>
       </c>
       <c r="W46" t="n">
-        <v>41.61453690594635</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="X46" t="n">
-        <v>41.61453690594635</v>
+        <v>41.61453690594612</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.31465285444518</v>
+        <v>34.31465285444516</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +8777,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M12" t="n">
-        <v>301.77688131</v>
+        <v>197.5542717195775</v>
       </c>
       <c r="N12" t="n">
         <v>310.6138585746227</v>
@@ -8786,10 +8786,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P12" t="n">
-        <v>10.68754955674475</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q12" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131753</v>
       </c>
       <c r="R12" t="n">
         <v>29.49804203773589</v>
@@ -9008,7 +9008,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491613</v>
       </c>
       <c r="L15" t="n">
         <v>240.3045437566416</v>
@@ -9023,10 +9023,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P15" t="n">
-        <v>102.141264488257</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q15" t="n">
-        <v>44.67636752131753</v>
+        <v>103.180849424555</v>
       </c>
       <c r="R15" t="n">
         <v>29.49804203773589</v>
@@ -9242,13 +9242,13 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J18" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976316</v>
       </c>
       <c r="K18" t="n">
         <v>8.646382090491613</v>
       </c>
       <c r="L18" t="n">
-        <v>240.3045437566416</v>
+        <v>227.6529352291877</v>
       </c>
       <c r="M18" t="n">
         <v>301.77688131</v>
@@ -9260,7 +9260,7 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P18" t="n">
-        <v>173.4146410504041</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9485,13 +9485,13 @@
         <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>240.3045437566416</v>
+        <v>44.62821923470665</v>
       </c>
       <c r="M21" t="n">
         <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
-        <v>206.3912489842007</v>
+        <v>310.6138585746227</v>
       </c>
       <c r="O21" t="n">
         <v>255.2227828913207</v>
@@ -9500,7 +9500,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q21" t="n">
-        <v>44.67636752131753</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R21" t="n">
         <v>29.49804203773589</v>
@@ -9716,7 +9716,7 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J24" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K24" t="n">
         <v>171.373473584151</v>
@@ -9728,7 +9728,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>114.9375340526881</v>
+        <v>226.6888734850222</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
@@ -9737,7 +9737,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
-        <v>136.1300824528302</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R24" t="n">
         <v>29.49804203773589</v>
@@ -9953,10 +9953,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J27" t="n">
-        <v>61.40936639976316</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>8.646382090491613</v>
+        <v>67.15086399372866</v>
       </c>
       <c r="L27" t="n">
         <v>240.3045437566416</v>
@@ -9974,7 +9974,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q27" t="n">
-        <v>123.4784739253766</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R27" t="n">
         <v>29.49804203773589</v>
@@ -10190,10 +10190,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J30" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K30" t="n">
-        <v>171.373473584151</v>
+        <v>8.64638209049167</v>
       </c>
       <c r="L30" t="n">
         <v>240.3045437566416</v>
@@ -10208,10 +10208,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P30" t="n">
-        <v>102.1412644882575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.67636752131753</v>
+        <v>123.4784739253762</v>
       </c>
       <c r="R30" t="n">
         <v>29.49804203773589</v>
@@ -10430,7 +10430,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>171.373473584151</v>
+        <v>67.1508639937291</v>
       </c>
       <c r="L33" t="n">
         <v>240.3045437566416</v>
@@ -10445,10 +10445,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P33" t="n">
-        <v>102.1412644882575</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.67636752131753</v>
+        <v>44.67636752131756</v>
       </c>
       <c r="R33" t="n">
         <v>29.49804203773589</v>
@@ -10667,7 +10667,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>67.15086399372898</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L36" t="n">
         <v>240.3045437566416</v>
@@ -10676,7 +10676,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N36" t="n">
-        <v>310.6138585746227</v>
+        <v>114.9375340526877</v>
       </c>
       <c r="O36" t="n">
         <v>255.2227828913207</v>
@@ -10685,7 +10685,7 @@
         <v>206.3638740786793</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.67636752131753</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R36" t="n">
         <v>29.49804203773589</v>
@@ -10901,10 +10901,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J39" t="n">
-        <v>81.70699090058493</v>
+        <v>61.40936639976319</v>
       </c>
       <c r="K39" t="n">
-        <v>8.646382090491613</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L39" t="n">
         <v>240.3045437566416</v>
@@ -10919,10 +10919,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P39" t="n">
-        <v>206.3638740786793</v>
+        <v>30.98517405756612</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.180849424555</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R39" t="n">
         <v>29.49804203773589</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>109.5746066315039</v>
+        <v>109.5746066315038</v>
       </c>
       <c r="K41" t="n">
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286918</v>
+        <v>270.6444670286916</v>
       </c>
       <c r="M41" t="n">
         <v>291.2847697033555</v>
@@ -11138,10 +11138,10 @@
         <v>6.561484152283033</v>
       </c>
       <c r="J42" t="n">
-        <v>61.40936639976314</v>
+        <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>171.373473584151</v>
+        <v>8.646382090491642</v>
       </c>
       <c r="L42" t="n">
         <v>240.3045437566416</v>
@@ -11153,13 +11153,13 @@
         <v>310.6138585746227</v>
       </c>
       <c r="O42" t="n">
-        <v>255.2227828913207</v>
+        <v>222.2735498630448</v>
       </c>
       <c r="P42" t="n">
-        <v>122.4388889890793</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.67636752131752</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R42" t="n">
         <v>29.49804203773589</v>
@@ -11378,7 +11378,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>67.1508639937289</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L45" t="n">
         <v>240.3045437566416</v>
@@ -11393,10 +11393,10 @@
         <v>255.2227828913207</v>
       </c>
       <c r="P45" t="n">
-        <v>206.3638740786793</v>
+        <v>10.68754955674406</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.67636752131752</v>
+        <v>136.1300824528302</v>
       </c>
       <c r="R45" t="n">
         <v>29.49804203773589</v>
@@ -23269,10 +23269,10 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F11" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>332.2779548450047</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.0353723969745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>119.316705620294</v>
+        <v>279.0033722219855</v>
       </c>
       <c r="Y11" t="n">
         <v>382.2855674184499</v>
@@ -23339,22 +23339,22 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>155.8423991568162</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>80.84345120350704</v>
@@ -23390,7 +23390,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23399,13 +23399,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>85.57516011721151</v>
       </c>
     </row>
     <row r="13">
@@ -23427,10 +23427,10 @@
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>9.444303701750613</v>
       </c>
       <c r="G13" t="n">
-        <v>168.0550137836253</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>160.0829940331247</v>
@@ -23460,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S13" t="n">
-        <v>174.1840844483078</v>
+        <v>224.1841888012565</v>
       </c>
       <c r="T13" t="n">
         <v>221.0023972007068</v>
@@ -23509,7 +23509,7 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>332.2779548450047</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>5.157681739137416</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,13 +23557,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X14" t="n">
-        <v>119.3167056202944</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23573,16 +23573,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>173.4205784779038</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>108.2987249485226</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -23591,10 +23591,10 @@
         <v>147.9743432409925</v>
       </c>
       <c r="H15" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>86.89603752886882</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>168.0550137836253</v>
       </c>
       <c r="H16" t="n">
-        <v>160.0829940331247</v>
+        <v>1.472283951250063</v>
       </c>
       <c r="I16" t="n">
         <v>145.433169315347</v>
       </c>
       <c r="J16" t="n">
-        <v>24.58419038258708</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>174.3941919203111</v>
       </c>
       <c r="S16" t="n">
         <v>224.1841888012565</v>
@@ -23737,10 +23737,10 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D17" t="n">
-        <v>337.7721596422273</v>
+        <v>186.1248542506022</v>
       </c>
       <c r="E17" t="n">
-        <v>45.25992804697523</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>185.5090622027477</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23791,7 +23791,7 @@
         <v>250.0353723969745</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>337.8964638257669</v>
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>11.09828570375058</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>144.6444273212301</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H18" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23861,16 +23861,16 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D19" t="n">
-        <v>136.2663915838535</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E19" t="n">
         <v>141.676141212225</v>
@@ -23946,16 +23946,16 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W19" t="n">
-        <v>290.3107070893353</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>221.9194554082425</v>
+        <v>214.6925701972565</v>
       </c>
       <c r="Y19" t="n">
         <v>217.1412728141684</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>121.7261307926254</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>371.4789120616362</v>
@@ -23983,13 +23983,13 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>332.2779548450047</v>
       </c>
       <c r="I20" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0353723969745</v>
+        <v>64.89501909578729</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="21">
@@ -24050,19 +24050,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H21" t="n">
         <v>118.2964226714636</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>177.283526739121</v>
+        <v>127.9352358782325</v>
       </c>
       <c r="T21" t="n">
-        <v>27.15505086107095</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R22" t="n">
         <v>174.3941919203111</v>
@@ -24183,13 +24183,13 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W22" t="n">
-        <v>65.91641081607548</v>
+        <v>281.3944484224782</v>
       </c>
       <c r="X22" t="n">
         <v>221.9194554082425</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D23" t="n">
-        <v>337.7721596422273</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>371.4789120616362</v>
       </c>
       <c r="F23" t="n">
-        <v>403.1992496400135</v>
+        <v>390.4364800722933</v>
       </c>
       <c r="G23" t="n">
         <v>417.3985592667085</v>
       </c>
       <c r="H23" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S23" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.1639724458418</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>320.879783609152</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>139.6536733287992</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="24">
@@ -24284,28 +24284,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>139.1004690886128</v>
+        <v>144.6444273212306</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>211.8662302997449</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C25" t="n">
         <v>166.4571809719723</v>
@@ -24375,7 +24375,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F25" t="n">
-        <v>138.9268822184467</v>
+        <v>130.0106235515896</v>
       </c>
       <c r="G25" t="n">
         <v>168.0550137836253</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R25" t="n">
         <v>174.3941919203111</v>
@@ -24420,7 +24420,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24432,7 +24432,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.22060117881523</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="26">
@@ -24448,13 +24448,13 @@
         <v>350.2054973811788</v>
       </c>
       <c r="D26" t="n">
-        <v>337.7721596422273</v>
+        <v>117.888771354622</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>371.4789120616362</v>
       </c>
       <c r="F26" t="n">
-        <v>403.1992496400135</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I26" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>216.1639724458418</v>
       </c>
       <c r="U26" t="n">
-        <v>130.6818415524669</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24511,7 +24511,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="27">
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>124.9087017146203</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>147.9743432409925</v>
@@ -24542,7 +24542,7 @@
         <v>118.2964226714636</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>86.89603752886882</v>
+        <v>86.89603752886885</v>
       </c>
       <c r="S27" t="n">
         <v>177.283526739121</v>
@@ -24578,7 +24578,7 @@
         <v>211.8662302997449</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>10.44761554881035</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R28" t="n">
         <v>174.3941919203111</v>
@@ -24657,16 +24657,16 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6213336334641</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
       </c>
       <c r="W28" t="n">
-        <v>214.6925701972565</v>
+        <v>281.3944484224783</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y28" t="n">
         <v>217.1412728141684</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>374.0872403778333</v>
+        <v>166.6450443365316</v>
       </c>
       <c r="C29" t="n">
-        <v>350.2054973811788</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>337.7721596422273</v>
@@ -24697,10 +24697,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H29" t="n">
-        <v>332.2779548450047</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S29" t="n">
-        <v>46.85443090788479</v>
+        <v>194.7117974622146</v>
       </c>
       <c r="T29" t="n">
         <v>216.1639724458418</v>
@@ -24745,10 +24745,10 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
@@ -24767,7 +24767,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>169.6068269725367</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>39.52116026532843</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>130.0106235515895</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
         <v>168.0550137836253</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R31" t="n">
-        <v>174.3941919203111</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>224.1841888012565</v>
@@ -24894,7 +24894,7 @@
         <v>221.0023972007068</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>288.6213336334641</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24903,7 +24903,7 @@
         <v>290.3107070893353</v>
       </c>
       <c r="X31" t="n">
-        <v>221.9194554082425</v>
+        <v>98.77605502823246</v>
       </c>
       <c r="Y31" t="n">
         <v>217.1412728141684</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C32" t="n">
-        <v>139.6536733287991</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>337.7721596422273</v>
       </c>
       <c r="E32" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>403.1992496400135</v>
@@ -24934,10 +24934,10 @@
         <v>417.3985592667085</v>
       </c>
       <c r="H32" t="n">
-        <v>332.2779548450047</v>
+        <v>131.4268360318402</v>
       </c>
       <c r="I32" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>337.8964638257669</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -24998,25 +24998,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>157.0766988388083</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>80.84345120350704</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>74.92784829175613</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25092,7 +25092,7 @@
         <v>168.0550137836253</v>
       </c>
       <c r="H34" t="n">
-        <v>160.0829940331247</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>145.433169315347</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R34" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S34" t="n">
-        <v>224.1841888012565</v>
+        <v>86.72959053406015</v>
       </c>
       <c r="T34" t="n">
         <v>221.0023972007068</v>
@@ -25137,10 +25137,10 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X34" t="n">
-        <v>214.6925701972565</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y34" t="n">
         <v>217.1412728141684</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>100.9194185200207</v>
+        <v>350.2054973811788</v>
       </c>
       <c r="D35" t="n">
         <v>337.7721596422273</v>
@@ -25165,16 +25165,16 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F35" t="n">
-        <v>403.1992496400135</v>
+        <v>107.0786041960847</v>
       </c>
       <c r="G35" t="n">
-        <v>417.3985592667085</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I35" t="n">
-        <v>185.5090622027477</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25219,7 +25219,7 @@
         <v>337.8964638257669</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>359.7827142947061</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>147.9743432409925</v>
       </c>
       <c r="H36" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,22 +25283,22 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5544438682435</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>211.8662302997449</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>19.96847142758773</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -25323,19 +25323,19 @@
         <v>141.676141212225</v>
       </c>
       <c r="F37" t="n">
-        <v>138.9268822184467</v>
+        <v>65.57347871938205</v>
       </c>
       <c r="G37" t="n">
         <v>168.0550137836253</v>
       </c>
       <c r="H37" t="n">
-        <v>82.56286578368626</v>
+        <v>160.0829940331247</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>145.433169315347</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,13 +25356,13 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R37" t="n">
         <v>174.3941919203111</v>
       </c>
       <c r="S37" t="n">
-        <v>224.1841888012565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.0023972007068</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>374.0872403778333</v>
       </c>
       <c r="C38" t="n">
         <v>350.2054973811788</v>
@@ -25402,7 +25402,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I38" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>104.4504115547735</v>
       </c>
       <c r="S38" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.1639724458418</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0353723969745</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>320.879783609152</v>
+        <v>75.4096770302985</v>
       </c>
       <c r="W38" t="n">
         <v>337.8964638257669</v>
@@ -25459,7 +25459,7 @@
         <v>359.7827142947061</v>
       </c>
       <c r="Y38" t="n">
-        <v>283.8457187955054</v>
+        <v>382.2855674184499</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>137.3199483252176</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>147.9743432409925</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>177.283526739121</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>96.75916573427928</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.1773944157285</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -25551,16 +25551,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
-        <v>14.10223892236183</v>
+        <v>149.5226121023229</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>141.676141212225</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>168.0550137836253</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.1432960270615</v>
+        <v>73.14329602706151</v>
       </c>
       <c r="R40" t="n">
         <v>174.3941919203111</v>
@@ -25639,7 +25639,7 @@
         <v>371.4789120616362</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>272.9862099727474</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>332.2779548450047</v>
       </c>
       <c r="I41" t="n">
-        <v>185.5090622027477</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>194.7117974622146</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>108.9293227536261</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25709,25 +25709,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>147.9743432409925</v>
+        <v>60.58853183934673</v>
       </c>
       <c r="H42" t="n">
-        <v>118.2964226714636</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>80.84345120350704</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>86.89603752886882</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>62.6554170445508</v>
+        <v>177.283526739121</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25766,16 +25766,16 @@
         <v>237.1773944157285</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25800,7 +25800,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>160.8281285726392</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>160.0829940331247</v>
@@ -25809,7 +25809,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J43" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.14329602706148</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R43" t="n">
         <v>174.3941919203111</v>
@@ -25848,13 +25848,13 @@
         <v>245.1090151844499</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>290.3107070893353</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.1412728141684</v>
+        <v>87.65869429747244</v>
       </c>
     </row>
     <row r="44">
@@ -25873,19 +25873,19 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E44" t="n">
-        <v>371.4789120616362</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>128.5821895923023</v>
+        <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>417.3985592667085</v>
       </c>
       <c r="H44" t="n">
         <v>332.2779548450047</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>185.5090622027478</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>104.4504115547734</v>
+        <v>104.4504115547735</v>
       </c>
       <c r="S44" t="n">
         <v>194.7117974622146</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.1639724458418</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W44" t="n">
-        <v>337.8964638257669</v>
+        <v>36.87522002839876</v>
       </c>
       <c r="X44" t="n">
-        <v>359.7827142947061</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>382.2855674184499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>142.330240431122</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>147.9743432409925</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>118.2964226714636</v>
       </c>
       <c r="I45" t="n">
-        <v>61.91053974263271</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26046,7 +26046,7 @@
         <v>145.433169315347</v>
       </c>
       <c r="J46" t="n">
-        <v>74.58429473553583</v>
+        <v>74.58429473553585</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>73.14329602706148</v>
+        <v>73.1432960270615</v>
       </c>
       <c r="R46" t="n">
         <v>174.3941919203111</v>
@@ -26091,7 +26091,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
-        <v>209.9143876031823</v>
+        <v>209.9143876031825</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>592906.5274433811</v>
+        <v>592906.5274433809</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>592906.5274433813</v>
+        <v>592906.527443381</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>592906.5274433811</v>
+        <v>592906.527443381</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>592906.5274433809</v>
+        <v>592906.5274433811</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>592906.5274433813</v>
+        <v>592906.527443381</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>592906.5274433811</v>
+        <v>592906.527443381</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>592906.5274433811</v>
+        <v>592906.527443381</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>529159.1971058757</v>
+        <v>529159.1971058758</v>
       </c>
       <c r="C2" t="n">
         <v>529159.1971058756</v>
@@ -26322,37 +26322,37 @@
         <v>529159.1971058756</v>
       </c>
       <c r="E2" t="n">
+        <v>300554.5501515164</v>
+      </c>
+      <c r="F2" t="n">
         <v>300554.5501515165</v>
-      </c>
-      <c r="F2" t="n">
-        <v>300554.5501515166</v>
       </c>
       <c r="G2" t="n">
         <v>300554.5501515165</v>
       </c>
       <c r="H2" t="n">
-        <v>300554.5501515163</v>
+        <v>300554.5501515166</v>
       </c>
       <c r="I2" t="n">
-        <v>300554.5501515162</v>
+        <v>300554.5501515166</v>
       </c>
       <c r="J2" t="n">
-        <v>300554.5501515164</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="K2" t="n">
         <v>300554.5501515165</v>
       </c>
       <c r="L2" t="n">
-        <v>300554.5501515164</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="M2" t="n">
         <v>300554.5501515165</v>
       </c>
       <c r="N2" t="n">
-        <v>300554.5501515164</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="O2" t="n">
-        <v>300554.5501515166</v>
+        <v>300554.5501515165</v>
       </c>
       <c r="P2" t="n">
         <v>300554.5501515165</v>
@@ -26426,13 +26426,13 @@
         <v>398503.1168259752</v>
       </c>
       <c r="E4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="F4" t="n">
         <v>17165.37605798123</v>
       </c>
       <c r="G4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="H4" t="n">
         <v>17165.37605798123</v>
@@ -26444,7 +26444,7 @@
         <v>17165.37605798123</v>
       </c>
       <c r="K4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="L4" t="n">
         <v>17165.37605798123</v>
@@ -26456,7 +26456,7 @@
         <v>17165.37605798123</v>
       </c>
       <c r="O4" t="n">
-        <v>17165.37605798123</v>
+        <v>17165.37605798122</v>
       </c>
       <c r="P4" t="n">
         <v>17165.37605798123</v>
@@ -26490,28 +26490,28 @@
         <v>36091.33751189047</v>
       </c>
       <c r="I5" t="n">
-        <v>36091.33751189048</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="J5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36091.33751189046</v>
+      </c>
+      <c r="L5" t="n">
         <v>36091.33751189047</v>
       </c>
-      <c r="K5" t="n">
-        <v>36091.33751189047</v>
-      </c>
-      <c r="L5" t="n">
-        <v>36091.33751189048</v>
-      </c>
       <c r="M5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="N5" t="n">
-        <v>36091.33751189048</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="O5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
       <c r="P5" t="n">
-        <v>36091.33751189047</v>
+        <v>36091.33751189046</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>97028.48027990054</v>
+        <v>96983.81643784873</v>
       </c>
       <c r="C6" t="n">
-        <v>97028.48027990042</v>
+        <v>96983.81643784844</v>
       </c>
       <c r="D6" t="n">
-        <v>97028.48027990042</v>
+        <v>96983.81643784849</v>
       </c>
       <c r="E6" t="n">
-        <v>-249755.3152358478</v>
+        <v>-259325.1727009981</v>
       </c>
       <c r="F6" t="n">
-        <v>247297.8365816449</v>
+        <v>237727.9791164946</v>
       </c>
       <c r="G6" t="n">
-        <v>247297.8365816448</v>
+        <v>237727.9791164946</v>
       </c>
       <c r="H6" t="n">
-        <v>247297.8365816446</v>
+        <v>237727.9791164947</v>
       </c>
       <c r="I6" t="n">
-        <v>247297.8365816445</v>
+        <v>237727.9791164947</v>
       </c>
       <c r="J6" t="n">
-        <v>247297.8365816447</v>
+        <v>237727.9791164946</v>
       </c>
       <c r="K6" t="n">
-        <v>247297.8365816448</v>
+        <v>237727.9791164946</v>
       </c>
       <c r="L6" t="n">
-        <v>247297.8365816447</v>
+        <v>237727.9791164946</v>
       </c>
       <c r="M6" t="n">
-        <v>140405.9772074053</v>
+        <v>130836.1197422552</v>
       </c>
       <c r="N6" t="n">
-        <v>247297.8365816447</v>
+        <v>237727.9791164946</v>
       </c>
       <c r="O6" t="n">
-        <v>247297.8365816449</v>
+        <v>237727.9791164946</v>
       </c>
       <c r="P6" t="n">
-        <v>247297.8365816447</v>
+        <v>237727.9791164946</v>
       </c>
     </row>
   </sheetData>
@@ -26755,31 +26755,31 @@
         <v>459.2752909409238</v>
       </c>
       <c r="H3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="I3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="J3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="K3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="L3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="M3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="N3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409236</v>
       </c>
       <c r="O3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
       <c r="P3" t="n">
-        <v>459.2752909409238</v>
+        <v>459.2752909409237</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="F4" t="n">
         <v>428.9331606805647</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>428.9331606805646</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="I4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="J4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="K4" t="n">
+        <v>428.9331606805646</v>
+      </c>
+      <c r="L4" t="n">
         <v>428.9331606805647</v>
       </c>
-      <c r="H4" t="n">
-        <v>428.9331606805647</v>
-      </c>
-      <c r="I4" t="n">
-        <v>428.9331606805648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>428.9331606805647</v>
-      </c>
-      <c r="K4" t="n">
-        <v>428.9331606805647</v>
-      </c>
-      <c r="L4" t="n">
-        <v>428.9331606805648</v>
-      </c>
       <c r="M4" t="n">
-        <v>428.9331606805647</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
-        <v>428.9331606805648</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="O4" t="n">
-        <v>428.9331606805648</v>
+        <v>428.9331606805645</v>
       </c>
       <c r="P4" t="n">
-        <v>428.9331606805648</v>
+        <v>428.9331606805645</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>428.9331606805645</v>
+        <v>428.9331606805646</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H20" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I20" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J20" t="n">
         <v>156.7051908522502</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H21" t="n">
         <v>9.540794251433153</v>
@@ -32551,7 +32551,7 @@
         <v>34.01236824420992</v>
       </c>
       <c r="J21" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K21" t="n">
         <v>159.5201734582263</v>
@@ -32581,7 +32581,7 @@
         <v>18.34934770881897</v>
       </c>
       <c r="T21" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U21" t="n">
         <v>0.06499178645390433</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H22" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I22" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J22" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K22" t="n">
         <v>96.22193800368858</v>
       </c>
       <c r="L22" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M22" t="n">
         <v>129.8243252736778</v>
@@ -32657,13 +32657,13 @@
         <v>37.2389440818657</v>
       </c>
       <c r="S22" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T22" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,28 +32700,28 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H23" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I23" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J23" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K23" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L23" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M23" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N23" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O23" t="n">
         <v>311.0863102573771</v>
@@ -32730,16 +32730,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q23" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R23" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S23" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T23" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U23" t="n">
         <v>0.1477066262322567</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H24" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I24" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J24" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K24" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L24" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M24" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N24" t="n">
         <v>256.9298629953381</v>
@@ -32812,16 +32812,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R24" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S24" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T24" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H25" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I25" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J25" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K25" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L25" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M25" t="n">
         <v>129.8243252736778</v>
@@ -32888,19 +32888,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q25" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R25" t="n">
         <v>37.2389440818657</v>
       </c>
       <c r="S25" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T25" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,28 +32937,28 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H26" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I26" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J26" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K26" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L26" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M26" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N26" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O26" t="n">
         <v>311.0863102573771</v>
@@ -32967,16 +32967,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q26" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R26" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S26" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T26" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U26" t="n">
         <v>0.1477066262322567</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H27" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I27" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J27" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K27" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L27" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M27" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N27" t="n">
         <v>256.9298629953381</v>
@@ -33049,16 +33049,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R27" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S27" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T27" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H28" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I28" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J28" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K28" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L28" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M28" t="n">
         <v>129.8243252736778</v>
@@ -33125,19 +33125,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q28" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R28" t="n">
         <v>37.2389440818657</v>
       </c>
       <c r="S28" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T28" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,28 +33174,28 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H29" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I29" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J29" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K29" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L29" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M29" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N29" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O29" t="n">
         <v>311.0863102573771</v>
@@ -33204,16 +33204,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q29" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R29" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S29" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T29" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U29" t="n">
         <v>0.1477066262322567</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H30" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I30" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J30" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K30" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L30" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M30" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N30" t="n">
         <v>256.9298629953381</v>
@@ -33286,16 +33286,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R30" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S30" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T30" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H31" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I31" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J31" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K31" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L31" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M31" t="n">
         <v>129.8243252736778</v>
@@ -33362,19 +33362,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q31" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R31" t="n">
         <v>37.2389440818657</v>
       </c>
       <c r="S31" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T31" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,28 +33411,28 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H32" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I32" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J32" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K32" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L32" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M32" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N32" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O32" t="n">
         <v>311.0863102573771</v>
@@ -33441,16 +33441,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q32" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R32" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S32" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T32" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U32" t="n">
         <v>0.1477066262322567</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H33" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I33" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J33" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K33" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L33" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M33" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N33" t="n">
         <v>256.9298629953381</v>
@@ -33523,16 +33523,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R33" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S33" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T33" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H34" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I34" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J34" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K34" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L34" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M34" t="n">
         <v>129.8243252736778</v>
@@ -33599,19 +33599,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q34" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R34" t="n">
         <v>37.2389440818657</v>
       </c>
       <c r="S34" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T34" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,28 +33648,28 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H35" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I35" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J35" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K35" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L35" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M35" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N35" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O35" t="n">
         <v>311.0863102573771</v>
@@ -33678,16 +33678,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q35" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R35" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S35" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T35" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U35" t="n">
         <v>0.1477066262322567</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H36" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I36" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J36" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K36" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L36" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M36" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N36" t="n">
         <v>256.9298629953381</v>
@@ -33760,16 +33760,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R36" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S36" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T36" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H37" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I37" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J37" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K37" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L37" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M37" t="n">
         <v>129.8243252736778</v>
@@ -33836,19 +33836,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q37" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R37" t="n">
         <v>37.2389440818657</v>
       </c>
       <c r="S37" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T37" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,28 +33885,28 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H38" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I38" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J38" t="n">
         <v>156.7051908522502</v>
       </c>
       <c r="K38" t="n">
-        <v>234.8604594573931</v>
+        <v>234.860459457393</v>
       </c>
       <c r="L38" t="n">
         <v>291.365167739336</v>
       </c>
       <c r="M38" t="n">
-        <v>324.1998891675597</v>
+        <v>324.1998891675596</v>
       </c>
       <c r="N38" t="n">
-        <v>329.4457823148397</v>
+        <v>329.4457823148396</v>
       </c>
       <c r="O38" t="n">
         <v>311.0863102573771</v>
@@ -33915,16 +33915,16 @@
         <v>265.5049685685166</v>
       </c>
       <c r="Q38" t="n">
-        <v>199.3831741692329</v>
+        <v>199.3831741692328</v>
       </c>
       <c r="R38" t="n">
         <v>115.9797045007751</v>
       </c>
       <c r="S38" t="n">
-        <v>42.07330931584443</v>
+        <v>42.07330931584442</v>
       </c>
       <c r="T38" t="n">
-        <v>8.082321954146304</v>
+        <v>8.082321954146302</v>
       </c>
       <c r="U38" t="n">
         <v>0.1477066262322567</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9878751540993455</v>
+        <v>0.9878751540993452</v>
       </c>
       <c r="H39" t="n">
-        <v>9.540794251433153</v>
+        <v>9.540794251433152</v>
       </c>
       <c r="I39" t="n">
         <v>34.01236824420992</v>
       </c>
       <c r="J39" t="n">
-        <v>93.3325381335702</v>
+        <v>93.33253813357017</v>
       </c>
       <c r="K39" t="n">
         <v>159.5201734582263</v>
       </c>
       <c r="L39" t="n">
-        <v>214.4945592267022</v>
+        <v>214.4945592267021</v>
       </c>
       <c r="M39" t="n">
-        <v>250.3050335628034</v>
+        <v>250.3050335628033</v>
       </c>
       <c r="N39" t="n">
         <v>256.9298629953381</v>
@@ -33997,16 +33997,16 @@
         <v>126.1013968636287</v>
       </c>
       <c r="R39" t="n">
-        <v>61.33491526943131</v>
+        <v>61.3349152694313</v>
       </c>
       <c r="S39" t="n">
-        <v>18.34934770881897</v>
+        <v>18.34934770881896</v>
       </c>
       <c r="T39" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06499178645390433</v>
+        <v>0.06499178645390431</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8282013443196985</v>
+        <v>0.8282013443196983</v>
       </c>
       <c r="H40" t="n">
-        <v>7.363462861315143</v>
+        <v>7.363462861315141</v>
       </c>
       <c r="I40" t="n">
         <v>24.90627315463239</v>
       </c>
       <c r="J40" t="n">
-        <v>58.55383504340268</v>
+        <v>58.55383504340266</v>
       </c>
       <c r="K40" t="n">
-        <v>96.22193800368858</v>
+        <v>96.22193800368856</v>
       </c>
       <c r="L40" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M40" t="n">
         <v>129.8243252736778</v>
@@ -34073,19 +34073,19 @@
         <v>100.1671880439024</v>
       </c>
       <c r="Q40" t="n">
-        <v>69.35056893207948</v>
+        <v>69.35056893207947</v>
       </c>
       <c r="R40" t="n">
         <v>37.2389440818657</v>
       </c>
       <c r="S40" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T40" t="n">
         <v>3.538678471184165</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.0451746187810745</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H41" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I41" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J41" t="n">
         <v>156.7051908522502</v>
@@ -34137,19 +34137,19 @@
         <v>234.8604594573931</v>
       </c>
       <c r="L41" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M41" t="n">
         <v>324.1998891675597</v>
       </c>
       <c r="N41" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O41" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P41" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q41" t="n">
         <v>199.3831741692329</v>
@@ -34158,10 +34158,10 @@
         <v>115.9797045007751</v>
       </c>
       <c r="S41" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T41" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U41" t="n">
         <v>0.1477066262322567</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H42" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I42" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J42" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K42" t="n">
         <v>159.5201734582263</v>
@@ -34225,25 +34225,25 @@
         <v>256.9298629953381</v>
       </c>
       <c r="O42" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P42" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q42" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R42" t="n">
-        <v>61.33491526943132</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S42" t="n">
         <v>18.34934770881897</v>
       </c>
       <c r="T42" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H43" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I43" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J43" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K43" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L43" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M43" t="n">
         <v>129.8243252736778</v>
@@ -34304,25 +34304,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O43" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P43" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q43" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R43" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S43" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T43" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.84633282790321</v>
+        <v>1.846332827903209</v>
       </c>
       <c r="H44" t="n">
         <v>18.90875607376375</v>
       </c>
       <c r="I44" t="n">
-        <v>71.18074634773856</v>
+        <v>71.18074634773855</v>
       </c>
       <c r="J44" t="n">
         <v>156.7051908522502</v>
@@ -34374,19 +34374,19 @@
         <v>234.8604594573931</v>
       </c>
       <c r="L44" t="n">
-        <v>291.3651677393361</v>
+        <v>291.365167739336</v>
       </c>
       <c r="M44" t="n">
         <v>324.1998891675597</v>
       </c>
       <c r="N44" t="n">
-        <v>329.4457823148398</v>
+        <v>329.4457823148397</v>
       </c>
       <c r="O44" t="n">
-        <v>311.0863102573772</v>
+        <v>311.0863102573771</v>
       </c>
       <c r="P44" t="n">
-        <v>265.5049685685167</v>
+        <v>265.5049685685166</v>
       </c>
       <c r="Q44" t="n">
         <v>199.3831741692329</v>
@@ -34395,10 +34395,10 @@
         <v>115.9797045007751</v>
       </c>
       <c r="S44" t="n">
-        <v>42.07330931584444</v>
+        <v>42.07330931584443</v>
       </c>
       <c r="T44" t="n">
-        <v>8.082321954146305</v>
+        <v>8.082321954146304</v>
       </c>
       <c r="U44" t="n">
         <v>0.1477066262322567</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9878751540993456</v>
+        <v>0.9878751540993453</v>
       </c>
       <c r="H45" t="n">
-        <v>9.540794251433155</v>
+        <v>9.540794251433153</v>
       </c>
       <c r="I45" t="n">
-        <v>34.01236824420993</v>
+        <v>34.01236824420992</v>
       </c>
       <c r="J45" t="n">
-        <v>93.33253813357021</v>
+        <v>93.33253813357018</v>
       </c>
       <c r="K45" t="n">
         <v>159.5201734582263</v>
@@ -34462,25 +34462,25 @@
         <v>256.9298629953381</v>
       </c>
       <c r="O45" t="n">
-        <v>235.0406293176632</v>
+        <v>235.0406293176631</v>
       </c>
       <c r="P45" t="n">
-        <v>188.6408265753391</v>
+        <v>188.640826575339</v>
       </c>
       <c r="Q45" t="n">
-        <v>126.1013968636288</v>
+        <v>126.1013968636287</v>
       </c>
       <c r="R45" t="n">
-        <v>61.33491526943132</v>
+        <v>61.33491526943131</v>
       </c>
       <c r="S45" t="n">
         <v>18.34934770881897</v>
       </c>
       <c r="T45" t="n">
-        <v>3.981830116742536</v>
+        <v>3.981830116742535</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06499178645390434</v>
+        <v>0.06499178645390433</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8282013443196986</v>
+        <v>0.8282013443196984</v>
       </c>
       <c r="H46" t="n">
-        <v>7.363462861315144</v>
+        <v>7.363462861315142</v>
       </c>
       <c r="I46" t="n">
-        <v>24.9062731546324</v>
+        <v>24.90627315463239</v>
       </c>
       <c r="J46" t="n">
-        <v>58.55383504340269</v>
+        <v>58.55383504340267</v>
       </c>
       <c r="K46" t="n">
-        <v>96.22193800368859</v>
+        <v>96.22193800368858</v>
       </c>
       <c r="L46" t="n">
-        <v>123.1309525909487</v>
+        <v>123.1309525909486</v>
       </c>
       <c r="M46" t="n">
         <v>129.8243252736778</v>
@@ -34541,25 +34541,25 @@
         <v>126.7373929903045</v>
       </c>
       <c r="O46" t="n">
-        <v>117.0624954680244</v>
+        <v>117.0624954680243</v>
       </c>
       <c r="P46" t="n">
         <v>100.1671880439024</v>
       </c>
       <c r="Q46" t="n">
-        <v>69.3505689320795</v>
+        <v>69.35056893207948</v>
       </c>
       <c r="R46" t="n">
-        <v>37.23894408186571</v>
+        <v>37.2389440818657</v>
       </c>
       <c r="S46" t="n">
-        <v>14.43329070055329</v>
+        <v>14.43329070055328</v>
       </c>
       <c r="T46" t="n">
-        <v>3.538678471184166</v>
+        <v>3.538678471184165</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04517461878107452</v>
+        <v>0.04517461878107451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35497,7 +35497,7 @@
         <v>285.7627596518972</v>
       </c>
       <c r="M12" t="n">
-        <v>378.678393487941</v>
+        <v>274.4557838975186</v>
       </c>
       <c r="N12" t="n">
         <v>407.3068328282941</v>
@@ -35506,10 +35506,10 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P12" t="n">
-        <v>35.8795990866009</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.45371493151268</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>20.29762450082177</v>
       </c>
       <c r="K15" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>285.7627596518972</v>
@@ -35743,10 +35743,10 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P15" t="n">
-        <v>127.3333140181132</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>58.5044819032375</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>20.29762450082177</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>285.7627596518972</v>
+        <v>273.1111511244434</v>
       </c>
       <c r="M18" t="n">
         <v>378.678393487941</v>
@@ -35980,7 +35980,7 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P18" t="n">
-        <v>198.6066905802602</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q18" t="n">
         <v>91.45371493151268</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K20" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L20" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M20" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N20" t="n">
         <v>332.9626517459645</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>20.29762450082177</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K21" t="n">
         <v>162.7270914936593</v>
       </c>
       <c r="L21" t="n">
-        <v>285.7627596518972</v>
+        <v>90.0864351299623</v>
       </c>
       <c r="M21" t="n">
         <v>378.678393487941</v>
       </c>
       <c r="N21" t="n">
-        <v>303.0842232378722</v>
+        <v>407.3068328282941</v>
       </c>
       <c r="O21" t="n">
         <v>316.2959939867617</v>
@@ -36220,7 +36220,7 @@
         <v>231.5559236085354</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,19 +36284,19 @@
         <v>7.995723626970275</v>
       </c>
       <c r="L22" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M22" t="n">
         <v>76.00912912692043</v>
       </c>
       <c r="N22" t="n">
-        <v>82.29890925793124</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O22" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P22" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K23" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L23" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M23" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N23" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O23" t="n">
         <v>277.1250097811783</v>
@@ -36378,7 +36378,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q23" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>20.29762450082177</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>162.7270914936593</v>
@@ -36448,16 +36448,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N24" t="n">
-        <v>211.6305083063595</v>
+        <v>323.3818477386936</v>
       </c>
       <c r="O24" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P24" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.45371493151268</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L25" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M25" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N25" t="n">
-        <v>82.29890925793124</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O25" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P25" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K26" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L26" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M26" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N26" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O26" t="n">
         <v>277.1250097811783</v>
@@ -36615,7 +36615,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q26" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>58.50448190323699</v>
       </c>
       <c r="L27" t="n">
         <v>285.7627596518972</v>
@@ -36688,13 +36688,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O27" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P27" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.80210640405907</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L28" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M28" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N28" t="n">
-        <v>82.29890925793124</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O28" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P28" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K29" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L29" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M29" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N29" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O29" t="n">
         <v>277.1250097811783</v>
@@ -36852,7 +36852,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q29" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>20.29762450082177</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>285.7627596518972</v>
@@ -36925,13 +36925,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O30" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P30" t="n">
-        <v>127.3333140181136</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>78.80210640405862</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L31" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M31" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N31" t="n">
-        <v>82.29890925793124</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O31" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P31" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K32" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L32" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M32" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N32" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O32" t="n">
         <v>277.1250097811783</v>
@@ -37089,7 +37089,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q32" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>20.29762450082177</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K33" t="n">
-        <v>162.7270914936593</v>
+        <v>58.50448190323744</v>
       </c>
       <c r="L33" t="n">
         <v>285.7627596518972</v>
@@ -37162,10 +37162,10 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O33" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P33" t="n">
-        <v>127.3333140181136</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,22 +37229,22 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L34" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M34" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N34" t="n">
-        <v>82.29890925793124</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O34" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P34" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,19 +37305,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K35" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L35" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M35" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N35" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O35" t="n">
         <v>277.1250097811783</v>
@@ -37326,7 +37326,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q35" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>20.29762450082177</v>
+        <v>20.29762450082174</v>
       </c>
       <c r="K36" t="n">
-        <v>58.50448190323736</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L36" t="n">
         <v>285.7627596518972</v>
@@ -37396,16 +37396,16 @@
         <v>378.678393487941</v>
       </c>
       <c r="N36" t="n">
-        <v>407.3068328282941</v>
+        <v>211.630508306359</v>
       </c>
       <c r="O36" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P36" t="n">
         <v>231.5559236085354</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L37" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M37" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N37" t="n">
-        <v>82.29890925793124</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O37" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P37" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>45.40379396119671</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K38" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L38" t="n">
         <v>274.3746085046434</v>
       </c>
       <c r="M38" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N38" t="n">
-        <v>332.9626517459645</v>
+        <v>332.9626517459644</v>
       </c>
       <c r="O38" t="n">
         <v>277.1250097811783</v>
@@ -37563,7 +37563,7 @@
         <v>191.9262766422085</v>
       </c>
       <c r="Q38" t="n">
-        <v>65.75034647002272</v>
+        <v>65.75034647002269</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>20.29762450082177</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L39" t="n">
         <v>285.7627596518972</v>
@@ -37636,13 +37636,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O39" t="n">
-        <v>316.2959939867617</v>
+        <v>316.2959939867616</v>
       </c>
       <c r="P39" t="n">
-        <v>231.5559236085354</v>
+        <v>56.17722358742224</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.5044819032375</v>
+        <v>91.45371493151265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7.995723626970275</v>
+        <v>7.995723626970261</v>
       </c>
       <c r="L40" t="n">
-        <v>63.8552541267652</v>
+        <v>63.85525412676517</v>
       </c>
       <c r="M40" t="n">
-        <v>76.00912912692043</v>
+        <v>76.0091291269204</v>
       </c>
       <c r="N40" t="n">
-        <v>82.29890925793124</v>
+        <v>82.2989092579312</v>
       </c>
       <c r="O40" t="n">
-        <v>53.796518361868</v>
+        <v>53.79651836186797</v>
       </c>
       <c r="P40" t="n">
-        <v>19.62327613144095</v>
+        <v>19.62327613144092</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.40379396119684</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K41" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L41" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046432</v>
       </c>
       <c r="M41" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N41" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O41" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P41" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q41" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K42" t="n">
-        <v>162.7270914936593</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>285.7627596518972</v>
@@ -37873,13 +37873,13 @@
         <v>407.3068328282941</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2959939867617</v>
+        <v>283.3467609584857</v>
       </c>
       <c r="P42" t="n">
-        <v>147.6309385189354</v>
+        <v>231.5559236085354</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L43" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M43" t="n">
-        <v>76.00912912692046</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N43" t="n">
-        <v>82.29890925793126</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O43" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P43" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>45.40379396119674</v>
+        <v>45.40379396119668</v>
       </c>
       <c r="K44" t="n">
-        <v>176.3970685286316</v>
+        <v>176.3970685286315</v>
       </c>
       <c r="L44" t="n">
-        <v>274.3746085046435</v>
+        <v>274.3746085046434</v>
       </c>
       <c r="M44" t="n">
-        <v>334.4622543336425</v>
+        <v>334.4622543336424</v>
       </c>
       <c r="N44" t="n">
-        <v>332.9626517459646</v>
+        <v>332.9626517459645</v>
       </c>
       <c r="O44" t="n">
-        <v>277.1250097811784</v>
+        <v>277.1250097811783</v>
       </c>
       <c r="P44" t="n">
-        <v>191.9262766422086</v>
+        <v>191.9262766422085</v>
       </c>
       <c r="Q44" t="n">
-        <v>65.75034647002275</v>
+        <v>65.75034647002272</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>20.29762450082178</v>
+        <v>20.29762450082175</v>
       </c>
       <c r="K45" t="n">
-        <v>58.50448190323729</v>
+        <v>162.7270914936593</v>
       </c>
       <c r="L45" t="n">
         <v>285.7627596518972</v>
@@ -38113,10 +38113,10 @@
         <v>316.2959939867617</v>
       </c>
       <c r="P45" t="n">
-        <v>231.5559236085355</v>
+        <v>35.87959908660021</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>91.45371493151266</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>7.995723626970289</v>
+        <v>7.995723626970275</v>
       </c>
       <c r="L46" t="n">
-        <v>63.85525412676522</v>
+        <v>63.85525412676519</v>
       </c>
       <c r="M46" t="n">
-        <v>76.00912912692046</v>
+        <v>76.00912912692043</v>
       </c>
       <c r="N46" t="n">
-        <v>82.29890925793126</v>
+        <v>82.29890925793121</v>
       </c>
       <c r="O46" t="n">
-        <v>53.79651836186801</v>
+        <v>53.79651836186798</v>
       </c>
       <c r="P46" t="n">
-        <v>19.62327613144096</v>
+        <v>19.62327613144093</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
